--- a/data/world_pop.xlsx
+++ b/data/world_pop.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="27795" windowHeight="13740"/>
+    <workbookView windowHeight="13740" windowWidth="27795" xWindow="480" yWindow="150" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Sheet1" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -28,6 +28,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -55,17 +56,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -79,10 +80,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -240,7 +241,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -249,13 +250,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -265,7 +266,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -274,7 +275,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -283,7 +284,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -293,12 +294,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -329,7 +330,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -348,7 +349,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -359,318 +360,318 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1990</v>
-      </c>
-      <c r="B2">
-        <v>5306000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1991</v>
-      </c>
-      <c r="B3">
-        <v>5390000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1992</v>
-      </c>
-      <c r="B4">
-        <v>5474000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1993</v>
-      </c>
-      <c r="B5">
-        <v>5558000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1994</v>
-      </c>
-      <c r="B6">
-        <v>5642000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1995</v>
-      </c>
-      <c r="B7">
-        <v>5726000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1996</v>
-      </c>
-      <c r="B8">
-        <v>5806000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1997</v>
-      </c>
-      <c r="B9">
-        <v>5885000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1998</v>
-      </c>
-      <c r="B10">
-        <v>5964000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1999</v>
-      </c>
-      <c r="B11">
-        <v>6043000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2000</v>
-      </c>
-      <c r="B12">
-        <v>6123000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2001</v>
-      </c>
-      <c r="B13">
-        <v>6200000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2002</v>
-      </c>
-      <c r="B14">
-        <v>6276000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2003</v>
-      </c>
-      <c r="B15">
-        <v>6353000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2004</v>
-      </c>
-      <c r="B16">
-        <v>6430000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2005</v>
-      </c>
-      <c r="B17">
-        <v>6507000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2006</v>
-      </c>
-      <c r="B18">
-        <v>6579000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2007</v>
-      </c>
-      <c r="B19">
-        <v>6652000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2008</v>
-      </c>
-      <c r="B20">
-        <v>6724000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2009</v>
-      </c>
-      <c r="B21">
-        <v>6797000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2010</v>
-      </c>
-      <c r="B22">
-        <v>6869000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2011</v>
-      </c>
-      <c r="B23">
-        <v>6993000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2012</v>
-      </c>
-      <c r="B24">
-        <v>7117000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2013</v>
-      </c>
-      <c r="B25">
-        <v>7241000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2014</v>
-      </c>
-      <c r="B26">
-        <v>7365000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2015</v>
-      </c>
-      <c r="B27">
-        <v>7489000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2020</v>
-      </c>
-      <c r="B28">
-        <v>7613000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2025</v>
-      </c>
-      <c r="B29">
-        <v>7938000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2030</v>
-      </c>
-      <c r="B30">
-        <v>8263000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2035</v>
-      </c>
-      <c r="B31">
-        <v>8524000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2040</v>
-      </c>
-      <c r="B32">
-        <v>8786000000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2045</v>
-      </c>
-      <c r="B33">
-        <v>8975000000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2050</v>
-      </c>
-      <c r="B34">
-        <v>9164000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+</sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+</sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Years</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>iiasa_ssp2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.306E9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.39E9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.474E9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.558E9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.642E9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.726E9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.806E9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.885E9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.964E9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.043E9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6.123E9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6.2E9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6.276E9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6.353E9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6.43E9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6.507E9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6.579E9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6.652E9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6.724E9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6.797E9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6.869E9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.993E9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7.117E9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7.241E9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7.365E9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7.489E9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2020.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7.613E9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2025.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7.938E9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2030.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8.263E9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2035.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>8.524E9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2040.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8.786E9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2045.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>8.975E9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2050.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9.164E9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>